--- a/Data/polizas.xlsx
+++ b/Data/polizas.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos UFT\Acsel_AutosA004\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AFA354-14E6-4DAB-ACDE-3FDCE26EE665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D7284B-EF0E-4841-AD13-25CE01E7FE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11175" xr2:uid="{6115F1F8-2DE2-43A0-909F-E2FF43A424F1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="1" xr2:uid="{6115F1F8-2DE2-43A0-909F-E2FF43A424F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Producto</t>
   </si>
@@ -46,6 +47,15 @@
   </si>
   <si>
     <t>A004</t>
+  </si>
+  <si>
+    <t>Acsel;Area Administrativa y Financiera</t>
+  </si>
+  <si>
+    <t>Acsel;Area Administrativa y Financiera;Cobros - Ingresos</t>
+  </si>
+  <si>
+    <t>Acsel;Area Administrativa y Financiera;Cobros - Ingresos;Ingresos</t>
   </si>
 </sst>
 </file>
@@ -399,7 +409,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A564A74-3C94-4E5B-90A3-F5F51F21B165}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -450,4 +462,30 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D6507F-4F8E-4743-948E-E73007A3DF93}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/polizas.xlsx
+++ b/Data/polizas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos UFT\Acsel_AutosA004\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D7284B-EF0E-4841-AD13-25CE01E7FE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DE8B5B-BB77-4AE4-9F7E-2AA8936A8A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="1" xr2:uid="{6115F1F8-2DE2-43A0-909F-E2FF43A424F1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{6115F1F8-2DE2-43A0-909F-E2FF43A424F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>Producto</t>
   </si>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A564A74-3C94-4E5B-90A3-F5F51F21B165}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,6 +457,50 @@
       </c>
       <c r="C4">
         <v>1000355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>70</v>
+      </c>
+      <c r="C5">
+        <v>1000358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>70</v>
+      </c>
+      <c r="C6">
+        <v>1000359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>70</v>
+      </c>
+      <c r="C7">
+        <v>1000360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>70</v>
+      </c>
+      <c r="C8">
+        <v>1000361</v>
       </c>
     </row>
   </sheetData>
@@ -468,7 +512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D6507F-4F8E-4743-948E-E73007A3DF93}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>

--- a/Data/polizas.xlsx
+++ b/Data/polizas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos UFT\Acsel_AutosA004\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DE8B5B-BB77-4AE4-9F7E-2AA8936A8A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FA37C8-C574-42BF-9A10-E9C4178B4F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{6115F1F8-2DE2-43A0-909F-E2FF43A424F1}"/>
+    <workbookView xWindow="3585" yWindow="1455" windowWidth="21600" windowHeight="11295" xr2:uid="{6115F1F8-2DE2-43A0-909F-E2FF43A424F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
   <si>
     <t>Producto</t>
   </si>
@@ -49,13 +49,10 @@
     <t>A004</t>
   </si>
   <si>
-    <t>Acsel;Area Administrativa y Financiera</t>
+    <t>Siniestro</t>
   </si>
   <si>
-    <t>Acsel;Area Administrativa y Financiera;Cobros - Ingresos</t>
-  </si>
-  <si>
-    <t>Acsel;Area Administrativa y Financiera;Cobros - Ingresos;Ingresos</t>
+    <t>Serie</t>
   </si>
 </sst>
 </file>
@@ -410,7 +407,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,15 +507,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D6507F-4F8E-4743-948E-E73007A3DF93}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -526,7 +523,94 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100223</v>
+      </c>
+      <c r="B2">
+        <v>2024</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1000358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>100224</v>
+      </c>
+      <c r="B3">
+        <v>2024</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1000358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>100225</v>
+      </c>
+      <c r="B4">
+        <v>2024</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1000358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>100226</v>
+      </c>
+      <c r="B5">
+        <v>2024</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1000358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>100227</v>
+      </c>
+      <c r="B6">
+        <v>2024</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1000358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>100228</v>
+      </c>
+      <c r="B7">
+        <v>2024</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1000358</v>
       </c>
     </row>
   </sheetData>

--- a/Data/polizas.xlsx
+++ b/Data/polizas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos UFT\Acsel_AutosA004\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FA37C8-C574-42BF-9A10-E9C4178B4F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E3DA5F-BB8E-4219-B656-70608C986DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="1455" windowWidth="21600" windowHeight="11295" xr2:uid="{6115F1F8-2DE2-43A0-909F-E2FF43A424F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6115F1F8-2DE2-43A0-909F-E2FF43A424F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="6">
   <si>
     <t>Producto</t>
   </si>
@@ -68,12 +68,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -88,8 +94,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A564A74-3C94-4E5B-90A3-F5F51F21B165}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +497,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B8">
@@ -498,6 +505,72 @@
       </c>
       <c r="C8">
         <v>1000361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>1000364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>70</v>
+      </c>
+      <c r="C10">
+        <v>1000368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>70</v>
+      </c>
+      <c r="C11">
+        <v>1000370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>70</v>
+      </c>
+      <c r="C12">
+        <v>1000371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>70</v>
+      </c>
+      <c r="C13">
+        <v>1000372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>70</v>
+      </c>
+      <c r="C14">
+        <v>1000373</v>
       </c>
     </row>
   </sheetData>
@@ -507,10 +580,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D6507F-4F8E-4743-948E-E73007A3DF93}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,7 +673,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>100228</v>
       </c>
       <c r="B7">
@@ -611,6 +684,76 @@
       </c>
       <c r="D7">
         <v>1000358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>100248</v>
+      </c>
+      <c r="B8">
+        <v>2024</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1000368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>100249</v>
+      </c>
+      <c r="B9">
+        <v>2024</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>1000370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>100250</v>
+      </c>
+      <c r="B10">
+        <v>2024</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1000371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>100251</v>
+      </c>
+      <c r="B11">
+        <v>2024</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>1000372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>100252</v>
+      </c>
+      <c r="B12">
+        <v>2024</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>1000373</v>
       </c>
     </row>
   </sheetData>

--- a/Data/polizas.xlsx
+++ b/Data/polizas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos UFT\Acsel_AutosA004\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E3DA5F-BB8E-4219-B656-70608C986DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4424EA-C8B6-4167-8D76-8A20DF93C062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6115F1F8-2DE2-43A0-909F-E2FF43A424F1}"/>
+    <workbookView xWindow="30" yWindow="3510" windowWidth="12735" windowHeight="7395" xr2:uid="{6115F1F8-2DE2-43A0-909F-E2FF43A424F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="6">
   <si>
     <t>Producto</t>
   </si>
@@ -411,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A564A74-3C94-4E5B-90A3-F5F51F21B165}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -573,6 +573,50 @@
         <v>1000373</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>70</v>
+      </c>
+      <c r="C15">
+        <v>1000375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>70</v>
+      </c>
+      <c r="C16">
+        <v>1000376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>70</v>
+      </c>
+      <c r="C17">
+        <v>1000378</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>70</v>
+      </c>
+      <c r="C18">
+        <v>1000379</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -580,7 +624,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D6507F-4F8E-4743-948E-E73007A3DF93}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -756,6 +800,76 @@
         <v>1000373</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>100292</v>
+      </c>
+      <c r="B13">
+        <v>2024</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>1000392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>100293</v>
+      </c>
+      <c r="B14">
+        <v>2024</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>1000394</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>100294</v>
+      </c>
+      <c r="B15">
+        <v>2024</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>1000395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>100295</v>
+      </c>
+      <c r="B16">
+        <v>2024</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>1000396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>100296</v>
+      </c>
+      <c r="B17">
+        <v>2024</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>1000397</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
